--- a/Redes e Beaglebones.xlsx
+++ b/Redes e Beaglebones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B252F2D-AF7C-41DB-9428-D80172D1FE82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35829412-97A0-4121-93C3-5A997DA95B9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beaglebone" sheetId="7" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1528" r:id="rId10"/>
-    <pivotCache cacheId="1529" r:id="rId11"/>
+    <pivotCache cacheId="1252" r:id="rId10"/>
+    <pivotCache cacheId="1253" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2517,6 +2517,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2526,20 +2527,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2551,6 +2563,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2558,21 +2576,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2589,9 +2592,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3665,7 +3665,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C88E8B21-8754-4965-B2B2-3CE12B6A5E7D}" name="PivotTable1" cacheId="1528" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C88E8B21-8754-4965-B2B2-3CE12B6A5E7D}" name="PivotTable1" cacheId="1252" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -3731,7 +3731,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDB34357-4AC8-49F2-B8B2-C60B1F2C227B}" name="PivotTable2" cacheId="1529" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDB34357-4AC8-49F2-B8B2-C60B1F2C227B}" name="PivotTable2" cacheId="1253" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:I12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -4129,20 +4129,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -4151,14 +4151,14 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" s="2" t="s">
@@ -4199,7 +4199,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="77">
+      <c r="A4" s="81">
         <v>1</v>
       </c>
       <c r="B4" s="19"/>
@@ -4212,7 +4212,7 @@
       <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -4231,7 +4231,7 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="78"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="19"/>
       <c r="C5" s="37" t="s">
         <v>14</v>
@@ -4242,7 +4242,7 @@
       <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="88" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -4259,7 +4259,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="78"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="19"/>
       <c r="C6" s="37" t="s">
         <v>16</v>
@@ -4270,7 +4270,7 @@
       <c r="E6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="5"/>
       <c r="H6" s="26"/>
       <c r="I6" s="6"/>
@@ -4285,7 +4285,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="78"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="19"/>
       <c r="C7" s="37" t="s">
         <v>17</v>
@@ -4307,7 +4307,7 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="78"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="19"/>
       <c r="C8" s="37" t="s">
         <v>19</v>
@@ -4318,7 +4318,7 @@
       <c r="E8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="72" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="5"/>
@@ -4329,7 +4329,7 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="78"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="19"/>
       <c r="C9" s="37" t="s">
         <v>21</v>
@@ -4340,7 +4340,7 @@
       <c r="E9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -4361,14 +4361,14 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="78"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="19"/>
       <c r="C10" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="73"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="5"/>
       <c r="H10" s="24"/>
       <c r="I10" s="26"/>
@@ -4377,14 +4377,14 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="79"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="19"/>
       <c r="C11" s="36" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="68"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="26"/>
@@ -4407,7 +4407,7 @@
       <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="77">
+      <c r="A13" s="81">
         <v>2</v>
       </c>
       <c r="B13" s="19"/>
@@ -4418,7 +4418,7 @@
       <c r="E13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -4437,7 +4437,7 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="78"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="19"/>
       <c r="C14" s="36" t="s">
         <v>32</v>
@@ -4446,7 +4446,7 @@
       <c r="E14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -4463,7 +4463,7 @@
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="78"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="19"/>
       <c r="C15" s="36" t="s">
         <v>33</v>
@@ -4472,7 +4472,7 @@
       <c r="E15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="8"/>
       <c r="H15" s="20"/>
       <c r="I15" s="8"/>
@@ -4487,7 +4487,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="78"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="19"/>
       <c r="C16" s="36" t="s">
         <v>34</v>
@@ -4507,7 +4507,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="78"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="19"/>
       <c r="C17" s="36" t="s">
         <v>35</v>
@@ -4516,7 +4516,7 @@
       <c r="E17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="26"/>
@@ -4527,7 +4527,7 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="78"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="19"/>
       <c r="C18" s="36" t="s">
         <v>36</v>
@@ -4536,7 +4536,7 @@
       <c r="E18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="68"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="9"/>
@@ -4545,7 +4545,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="78"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="19"/>
       <c r="C19" s="36" t="s">
         <v>37</v>
@@ -4554,7 +4554,7 @@
       <c r="E19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="68"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="9"/>
@@ -4563,7 +4563,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="79"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="19"/>
       <c r="C20" s="36" t="s">
         <v>38</v>
@@ -4572,7 +4572,7 @@
       <c r="E20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="68"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="5"/>
@@ -4595,7 +4595,7 @@
       <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="77">
+      <c r="A22" s="81">
         <v>3</v>
       </c>
       <c r="B22" s="19"/>
@@ -4606,7 +4606,7 @@
       <c r="E22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="25" t="s">
@@ -4625,7 +4625,7 @@
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="78"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="19"/>
       <c r="C23" s="36" t="s">
         <v>40</v>
@@ -4634,7 +4634,7 @@
       <c r="E23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="25" t="s">
@@ -4653,7 +4653,7 @@
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="78"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="19"/>
       <c r="C24" s="36" t="s">
         <v>41</v>
@@ -4662,7 +4662,7 @@
       <c r="E24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="8"/>
@@ -4671,7 +4671,7 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="78"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="19"/>
       <c r="C25" s="36" t="s">
         <v>42</v>
@@ -4691,7 +4691,7 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="78"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="19"/>
       <c r="C26" s="36" t="s">
         <v>43</v>
@@ -4700,7 +4700,7 @@
       <c r="E26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="72" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="26"/>
@@ -4711,7 +4711,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="78"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="19"/>
       <c r="C27" s="36" t="s">
         <v>44</v>
@@ -4720,7 +4720,7 @@
       <c r="E27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="26" t="s">
@@ -4741,7 +4741,7 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="78"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="19"/>
       <c r="C28" s="36" t="s">
         <v>50</v>
@@ -4750,7 +4750,7 @@
       <c r="E28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="9"/>
@@ -4759,7 +4759,7 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="79"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="19"/>
       <c r="C29" s="36" t="s">
         <v>51</v>
@@ -4768,7 +4768,7 @@
       <c r="E29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="26"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -4791,7 +4791,7 @@
       <c r="L30" s="44"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="77">
+      <c r="A31" s="81">
         <v>4</v>
       </c>
       <c r="B31" s="19"/>
@@ -4802,7 +4802,7 @@
       <c r="E31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="25" t="s">
@@ -4821,7 +4821,7 @@
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="78"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="19"/>
       <c r="C32" s="36" t="s">
         <v>53</v>
@@ -4830,7 +4830,7 @@
       <c r="E32" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="25" t="s">
@@ -4849,7 +4849,7 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="78"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="19"/>
       <c r="C33" s="36" t="s">
         <v>54</v>
@@ -4867,7 +4867,7 @@
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="78"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="19"/>
       <c r="C34" s="36" t="s">
         <v>55</v>
@@ -4887,7 +4887,7 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="78"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="19"/>
       <c r="C35" s="36" t="s">
         <v>56</v>
@@ -4896,7 +4896,7 @@
       <c r="E35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="6"/>
@@ -4907,7 +4907,7 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="78"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="19"/>
       <c r="C36" s="36" t="s">
         <v>57</v>
@@ -4916,7 +4916,7 @@
       <c r="E36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="6"/>
       <c r="H36" s="26"/>
       <c r="I36" s="9"/>
@@ -4925,7 +4925,7 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="78"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="19"/>
       <c r="C37" s="36" t="s">
         <v>58</v>
@@ -4934,7 +4934,7 @@
       <c r="E37" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="68"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="6"/>
       <c r="H37" s="26"/>
       <c r="I37" s="9"/>
@@ -4943,7 +4943,7 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="79"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="19"/>
       <c r="C38" s="36" t="s">
         <v>59</v>
@@ -4952,7 +4952,7 @@
       <c r="E38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="5"/>
       <c r="H38" s="24"/>
       <c r="I38" s="5"/>
@@ -4975,7 +4975,7 @@
       <c r="L39" s="44"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="77">
+      <c r="A40" s="81">
         <v>5</v>
       </c>
       <c r="B40" s="19"/>
@@ -4986,7 +4986,7 @@
       <c r="E40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -5005,7 +5005,7 @@
       <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="78"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="19"/>
       <c r="C41" s="36" t="s">
         <v>61</v>
@@ -5014,7 +5014,7 @@
       <c r="E41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -5033,7 +5033,7 @@
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="78"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="19"/>
       <c r="C42" s="36" t="s">
         <v>62</v>
@@ -5042,7 +5042,7 @@
       <c r="E42" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="76"/>
+      <c r="F42" s="84"/>
       <c r="G42" s="8"/>
       <c r="H42" s="20"/>
       <c r="I42" s="8"/>
@@ -5051,7 +5051,7 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="78"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="19"/>
       <c r="C43" s="36" t="s">
         <v>63</v>
@@ -5071,7 +5071,7 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="78"/>
+      <c r="A44" s="82"/>
       <c r="B44" s="19"/>
       <c r="C44" s="36" t="s">
         <v>64</v>
@@ -5080,7 +5080,7 @@
       <c r="E44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="73" t="s">
+      <c r="F44" s="72" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="6"/>
@@ -5091,7 +5091,7 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="78"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="19"/>
       <c r="C45" s="36" t="s">
         <v>65</v>
@@ -5100,7 +5100,7 @@
       <c r="E45" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="26" t="s">
@@ -5121,7 +5121,7 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="78"/>
+      <c r="A46" s="82"/>
       <c r="B46" s="19"/>
       <c r="C46" s="36" t="s">
         <v>71</v>
@@ -5130,7 +5130,7 @@
       <c r="E46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="73"/>
+      <c r="F46" s="72"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
       <c r="I46" s="9"/>
@@ -5139,7 +5139,7 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="79"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="19"/>
       <c r="C47" s="36" t="s">
         <v>72</v>
@@ -5148,7 +5148,7 @@
       <c r="E47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="68"/>
+      <c r="F47" s="69"/>
       <c r="G47" s="26"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -5171,7 +5171,7 @@
       <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="77">
+      <c r="A49" s="81">
         <v>6</v>
       </c>
       <c r="B49" s="19"/>
@@ -5182,7 +5182,7 @@
       <c r="E49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="F49" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -5201,7 +5201,7 @@
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="78"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="19"/>
       <c r="C50" s="36" t="s">
         <v>74</v>
@@ -5210,7 +5210,7 @@
       <c r="E50" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -5229,7 +5229,7 @@
       <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="78"/>
+      <c r="A51" s="82"/>
       <c r="B51" s="19"/>
       <c r="C51" s="36" t="s">
         <v>75</v>
@@ -5247,7 +5247,7 @@
       <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="78"/>
+      <c r="A52" s="82"/>
       <c r="B52" s="19"/>
       <c r="C52" s="36" t="s">
         <v>76</v>
@@ -5267,7 +5267,7 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="78"/>
+      <c r="A53" s="82"/>
       <c r="B53" s="19"/>
       <c r="C53" s="36" t="s">
         <v>77</v>
@@ -5276,7 +5276,7 @@
       <c r="E53" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="73" t="s">
+      <c r="F53" s="72" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="6"/>
@@ -5287,7 +5287,7 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="78"/>
+      <c r="A54" s="82"/>
       <c r="B54" s="19"/>
       <c r="C54" s="36" t="s">
         <v>78</v>
@@ -5296,7 +5296,7 @@
       <c r="E54" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="73"/>
+      <c r="F54" s="72"/>
       <c r="G54" s="6"/>
       <c r="H54" s="26"/>
       <c r="I54" s="9"/>
@@ -5305,7 +5305,7 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="78"/>
+      <c r="A55" s="82"/>
       <c r="B55" s="19"/>
       <c r="C55" s="36" t="s">
         <v>79</v>
@@ -5314,7 +5314,7 @@
       <c r="E55" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="73"/>
+      <c r="F55" s="72"/>
       <c r="G55" s="6"/>
       <c r="H55" s="26"/>
       <c r="I55" s="9"/>
@@ -5323,7 +5323,7 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="79"/>
+      <c r="A56" s="83"/>
       <c r="B56" s="19"/>
       <c r="C56" s="36" t="s">
         <v>80</v>
@@ -5332,7 +5332,7 @@
       <c r="E56" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="68"/>
+      <c r="F56" s="69"/>
       <c r="G56" s="5"/>
       <c r="H56" s="24"/>
       <c r="I56" s="5"/>
@@ -5355,7 +5355,7 @@
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="77">
+      <c r="A58" s="81">
         <v>7</v>
       </c>
       <c r="B58" s="19"/>
@@ -5366,7 +5366,7 @@
       <c r="E58" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="68" t="s">
+      <c r="F58" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -5385,7 +5385,7 @@
       <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="78"/>
+      <c r="A59" s="82"/>
       <c r="B59" s="19"/>
       <c r="C59" s="36" t="s">
         <v>82</v>
@@ -5394,7 +5394,7 @@
       <c r="E59" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="76" t="s">
+      <c r="F59" s="84" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -5413,7 +5413,7 @@
       <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="78"/>
+      <c r="A60" s="82"/>
       <c r="B60" s="19"/>
       <c r="C60" s="36" t="s">
         <v>83</v>
@@ -5422,7 +5422,7 @@
       <c r="E60" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="83"/>
+      <c r="F60" s="85"/>
       <c r="G60" s="8"/>
       <c r="H60" s="20"/>
       <c r="I60" s="8"/>
@@ -5431,7 +5431,7 @@
       <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="78"/>
+      <c r="A61" s="82"/>
       <c r="B61" s="19"/>
       <c r="C61" s="36" t="s">
         <v>84</v>
@@ -5451,7 +5451,7 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="78"/>
+      <c r="A62" s="82"/>
       <c r="B62" s="19"/>
       <c r="C62" s="36" t="s">
         <v>85</v>
@@ -5460,7 +5460,7 @@
       <c r="E62" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="68" t="s">
+      <c r="F62" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="6"/>
@@ -5471,7 +5471,7 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="78"/>
+      <c r="A63" s="82"/>
       <c r="B63" s="19"/>
       <c r="C63" s="36" t="s">
         <v>86</v>
@@ -5480,7 +5480,7 @@
       <c r="E63" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="68" t="s">
+      <c r="F63" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="26" t="s">
@@ -5501,7 +5501,7 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="78"/>
+      <c r="A64" s="82"/>
       <c r="B64" s="19"/>
       <c r="C64" s="36" t="s">
         <v>92</v>
@@ -5510,7 +5510,7 @@
       <c r="E64" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="68"/>
+      <c r="F64" s="69"/>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
       <c r="I64" s="9"/>
@@ -5519,7 +5519,7 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="79"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="19"/>
       <c r="C65" s="36" t="s">
         <v>93</v>
@@ -5528,7 +5528,7 @@
       <c r="E65" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="68"/>
+      <c r="F65" s="69"/>
       <c r="G65" s="26"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -5551,7 +5551,7 @@
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="77">
+      <c r="A67" s="81">
         <v>8</v>
       </c>
       <c r="B67" s="19"/>
@@ -5562,7 +5562,7 @@
       <c r="E67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="68" t="s">
+      <c r="F67" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
@@ -5581,7 +5581,7 @@
       <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="78"/>
+      <c r="A68" s="82"/>
       <c r="B68" s="19"/>
       <c r="C68" s="36" t="s">
         <v>95</v>
@@ -5590,7 +5590,7 @@
       <c r="E68" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="68" t="s">
+      <c r="F68" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -5609,7 +5609,7 @@
       <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="78"/>
+      <c r="A69" s="82"/>
       <c r="B69" s="19"/>
       <c r="C69" s="36" t="s">
         <v>96</v>
@@ -5627,7 +5627,7 @@
       <c r="L69" s="10"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="78"/>
+      <c r="A70" s="82"/>
       <c r="B70" s="19"/>
       <c r="C70" s="36" t="s">
         <v>97</v>
@@ -5647,7 +5647,7 @@
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="78"/>
+      <c r="A71" s="82"/>
       <c r="B71" s="19"/>
       <c r="C71" s="36" t="s">
         <v>98</v>
@@ -5656,7 +5656,7 @@
       <c r="E71" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="68" t="s">
+      <c r="F71" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="6"/>
@@ -5667,7 +5667,7 @@
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="78"/>
+      <c r="A72" s="82"/>
       <c r="B72" s="19"/>
       <c r="C72" s="36" t="s">
         <v>99</v>
@@ -5676,7 +5676,7 @@
       <c r="E72" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="68"/>
+      <c r="F72" s="69"/>
       <c r="G72" s="6"/>
       <c r="H72" s="26"/>
       <c r="I72" s="9"/>
@@ -5685,7 +5685,7 @@
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="78"/>
+      <c r="A73" s="82"/>
       <c r="B73" s="19"/>
       <c r="C73" s="36" t="s">
         <v>100</v>
@@ -5694,7 +5694,7 @@
       <c r="E73" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="68"/>
+      <c r="F73" s="69"/>
       <c r="G73" s="6"/>
       <c r="H73" s="26"/>
       <c r="I73" s="9"/>
@@ -5703,7 +5703,7 @@
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="79"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="19"/>
       <c r="C74" s="36" t="s">
         <v>101</v>
@@ -5712,7 +5712,7 @@
       <c r="E74" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="68"/>
+      <c r="F74" s="69"/>
       <c r="G74" s="5"/>
       <c r="H74" s="24"/>
       <c r="I74" s="5"/>
@@ -5735,7 +5735,7 @@
       <c r="L75" s="44"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="77">
+      <c r="A76" s="81">
         <v>9</v>
       </c>
       <c r="B76" s="19"/>
@@ -5746,7 +5746,7 @@
       <c r="E76" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="68" t="s">
+      <c r="F76" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
@@ -5765,7 +5765,7 @@
       <c r="L76" s="8"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="78"/>
+      <c r="A77" s="82"/>
       <c r="B77" s="19"/>
       <c r="C77" s="36" t="s">
         <v>103</v>
@@ -5774,7 +5774,7 @@
       <c r="E77" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F77" s="75" t="s">
+      <c r="F77" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="7" t="s">
@@ -5793,7 +5793,7 @@
       <c r="L77" s="8"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="78"/>
+      <c r="A78" s="82"/>
       <c r="B78" s="19"/>
       <c r="C78" s="36" t="s">
         <v>104</v>
@@ -5802,7 +5802,7 @@
       <c r="E78" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="75"/>
+      <c r="F78" s="77"/>
       <c r="G78" s="8"/>
       <c r="H78" s="20"/>
       <c r="I78" s="8"/>
@@ -5811,7 +5811,7 @@
       <c r="L78" s="10"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="78"/>
+      <c r="A79" s="82"/>
       <c r="B79" s="19"/>
       <c r="C79" s="36" t="s">
         <v>105</v>
@@ -5831,7 +5831,7 @@
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="78"/>
+      <c r="A80" s="82"/>
       <c r="B80" s="19"/>
       <c r="C80" s="36" t="s">
         <v>106</v>
@@ -5840,7 +5840,7 @@
       <c r="E80" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="70" t="s">
         <v>20</v>
       </c>
       <c r="G80" s="26"/>
@@ -5851,7 +5851,7 @@
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="78"/>
+      <c r="A81" s="82"/>
       <c r="B81" s="19"/>
       <c r="C81" s="36" t="s">
         <v>107</v>
@@ -5860,7 +5860,7 @@
       <c r="E81" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F81" s="68" t="s">
+      <c r="F81" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="26" t="s">
@@ -5881,7 +5881,7 @@
       <c r="L81" s="46"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="78"/>
+      <c r="A82" s="82"/>
       <c r="B82" s="19"/>
       <c r="C82" s="36" t="s">
         <v>113</v>
@@ -5890,7 +5890,7 @@
       <c r="E82" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F82" s="69"/>
+      <c r="F82" s="70"/>
       <c r="G82" s="26"/>
       <c r="H82" s="26"/>
       <c r="I82" s="9"/>
@@ -5899,7 +5899,7 @@
       <c r="L82" s="46"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="78"/>
+      <c r="A83" s="82"/>
       <c r="B83" s="19"/>
       <c r="C83" s="36" t="s">
         <v>114</v>
@@ -5908,7 +5908,7 @@
       <c r="E83" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F83" s="68"/>
+      <c r="F83" s="69"/>
       <c r="G83" s="26"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -5931,7 +5931,7 @@
       <c r="L84" s="44"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="84">
+      <c r="A85" s="76">
         <v>10</v>
       </c>
       <c r="B85" s="19"/>
@@ -5942,7 +5942,7 @@
       <c r="E85" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F85" s="68" t="s">
+      <c r="F85" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="7" t="s">
@@ -5961,7 +5961,7 @@
       <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="84"/>
+      <c r="A86" s="76"/>
       <c r="B86" s="19"/>
       <c r="C86" s="36" t="s">
         <v>116</v>
@@ -5970,7 +5970,7 @@
       <c r="E86" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F86" s="68" t="s">
+      <c r="F86" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -5989,7 +5989,7 @@
       <c r="L86" s="8"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="84"/>
+      <c r="A87" s="76"/>
       <c r="B87" s="19"/>
       <c r="C87" s="36" t="s">
         <v>117</v>
@@ -6007,7 +6007,7 @@
       <c r="L87" s="10"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="84"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="19"/>
       <c r="C88" s="36" t="s">
         <v>118</v>
@@ -6027,7 +6027,7 @@
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="84"/>
+      <c r="A89" s="76"/>
       <c r="B89" s="19"/>
       <c r="C89" s="36" t="s">
         <v>119</v>
@@ -6036,7 +6036,7 @@
       <c r="E89" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F89" s="68" t="s">
+      <c r="F89" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G89" s="6"/>
@@ -6047,7 +6047,7 @@
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="84"/>
+      <c r="A90" s="76"/>
       <c r="B90" s="19"/>
       <c r="C90" s="36" t="s">
         <v>120</v>
@@ -6056,7 +6056,7 @@
       <c r="E90" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F90" s="68"/>
+      <c r="F90" s="69"/>
       <c r="G90" s="6"/>
       <c r="H90" s="26"/>
       <c r="I90" s="9"/>
@@ -6065,7 +6065,7 @@
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="84"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="19"/>
       <c r="C91" s="36" t="s">
         <v>121</v>
@@ -6074,7 +6074,7 @@
       <c r="E91" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F91" s="68"/>
+      <c r="F91" s="69"/>
       <c r="G91" s="6"/>
       <c r="H91" s="26"/>
       <c r="I91" s="9"/>
@@ -6083,7 +6083,7 @@
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="84"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="19"/>
       <c r="C92" s="36" t="s">
         <v>122</v>
@@ -6092,7 +6092,7 @@
       <c r="E92" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F92" s="68"/>
+      <c r="F92" s="69"/>
       <c r="G92" s="5"/>
       <c r="H92" s="24"/>
       <c r="I92" s="5"/>
@@ -6115,7 +6115,7 @@
       <c r="L93" s="44"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="84">
+      <c r="A94" s="76">
         <v>11</v>
       </c>
       <c r="B94" s="19"/>
@@ -6126,7 +6126,7 @@
       <c r="E94" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F94" s="68" t="s">
+      <c r="F94" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="11"/>
@@ -6137,7 +6137,7 @@
       <c r="L94" s="8"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="84"/>
+      <c r="A95" s="76"/>
       <c r="B95" s="19"/>
       <c r="C95" s="36" t="s">
         <v>124</v>
@@ -6146,7 +6146,7 @@
       <c r="E95" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="75" t="s">
+      <c r="F95" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="11"/>
@@ -6157,7 +6157,7 @@
       <c r="L95" s="8"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="84"/>
+      <c r="A96" s="76"/>
       <c r="B96" s="19"/>
       <c r="C96" s="36" t="s">
         <v>125</v>
@@ -6166,7 +6166,7 @@
       <c r="E96" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F96" s="75"/>
+      <c r="F96" s="77"/>
       <c r="G96" s="8"/>
       <c r="H96" s="20"/>
       <c r="I96" s="8"/>
@@ -6175,7 +6175,7 @@
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="84"/>
+      <c r="A97" s="76"/>
       <c r="B97" s="19"/>
       <c r="C97" s="36" t="s">
         <v>126</v>
@@ -6195,7 +6195,7 @@
       <c r="L97" s="8"/>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="84"/>
+      <c r="A98" s="76"/>
       <c r="B98" s="19"/>
       <c r="C98" s="36" t="s">
         <v>127</v>
@@ -6204,7 +6204,7 @@
       <c r="E98" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F98" s="68" t="s">
+      <c r="F98" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="12"/>
@@ -6215,7 +6215,7 @@
       <c r="L98" s="12"/>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="84"/>
+      <c r="A99" s="76"/>
       <c r="B99" s="19"/>
       <c r="C99" s="36" t="s">
         <v>128</v>
@@ -6224,7 +6224,7 @@
       <c r="E99" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F99" s="68" t="s">
+      <c r="F99" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G99" s="12" t="s">
@@ -6245,7 +6245,7 @@
       <c r="L99" s="12"/>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="84"/>
+      <c r="A100" s="76"/>
       <c r="B100" s="19"/>
       <c r="C100" s="36" t="s">
         <v>134</v>
@@ -6254,7 +6254,7 @@
       <c r="E100" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F100" s="68"/>
+      <c r="F100" s="69"/>
       <c r="G100" s="12"/>
       <c r="H100" s="31"/>
       <c r="I100" s="12"/>
@@ -6263,7 +6263,7 @@
       <c r="L100" s="12"/>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="84"/>
+      <c r="A101" s="76"/>
       <c r="B101" s="19"/>
       <c r="C101" s="36" t="s">
         <v>135</v>
@@ -6272,7 +6272,7 @@
       <c r="E101" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F101" s="68"/>
+      <c r="F101" s="69"/>
       <c r="G101" s="12"/>
       <c r="H101" s="31"/>
       <c r="I101" s="12"/>
@@ -6295,7 +6295,7 @@
       <c r="L102" s="44"/>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="84">
+      <c r="A103" s="76">
         <v>12</v>
       </c>
       <c r="B103" s="19"/>
@@ -6306,7 +6306,7 @@
       <c r="E103" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F103" s="68" t="s">
+      <c r="F103" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G103" s="12"/>
@@ -6317,7 +6317,7 @@
       <c r="L103" s="12"/>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="84"/>
+      <c r="A104" s="76"/>
       <c r="B104" s="19"/>
       <c r="C104" s="36" t="s">
         <v>137</v>
@@ -6326,7 +6326,7 @@
       <c r="E104" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F104" s="68" t="s">
+      <c r="F104" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="12"/>
@@ -6337,7 +6337,7 @@
       <c r="L104" s="12"/>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="84"/>
+      <c r="A105" s="76"/>
       <c r="B105" s="19"/>
       <c r="C105" s="36" t="s">
         <v>138</v>
@@ -6355,7 +6355,7 @@
       <c r="L105" s="12"/>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="84"/>
+      <c r="A106" s="76"/>
       <c r="B106" s="19"/>
       <c r="C106" s="36" t="s">
         <v>139</v>
@@ -6375,7 +6375,7 @@
       <c r="L106" s="12"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="84"/>
+      <c r="A107" s="76"/>
       <c r="B107" s="19"/>
       <c r="C107" s="36" t="s">
         <v>140</v>
@@ -6384,7 +6384,7 @@
       <c r="E107" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="68" t="s">
+      <c r="F107" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="12"/>
@@ -6395,7 +6395,7 @@
       <c r="L107" s="12"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="84"/>
+      <c r="A108" s="76"/>
       <c r="B108" s="19"/>
       <c r="C108" s="36" t="s">
         <v>141</v>
@@ -6404,7 +6404,7 @@
       <c r="E108" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F108" s="68"/>
+      <c r="F108" s="69"/>
       <c r="G108" s="12"/>
       <c r="H108" s="31"/>
       <c r="I108" s="12"/>
@@ -6413,7 +6413,7 @@
       <c r="L108" s="12"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="84"/>
+      <c r="A109" s="76"/>
       <c r="B109" s="19"/>
       <c r="C109" s="36" t="s">
         <v>142</v>
@@ -6422,7 +6422,7 @@
       <c r="E109" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="68"/>
+      <c r="F109" s="69"/>
       <c r="G109" s="12"/>
       <c r="H109" s="31"/>
       <c r="I109" s="12"/>
@@ -6431,7 +6431,7 @@
       <c r="L109" s="12"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="84"/>
+      <c r="A110" s="76"/>
       <c r="B110" s="19"/>
       <c r="C110" s="36" t="s">
         <v>143</v>
@@ -6440,7 +6440,7 @@
       <c r="E110" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F110" s="68"/>
+      <c r="F110" s="69"/>
       <c r="G110" s="12"/>
       <c r="H110" s="31"/>
       <c r="I110" s="12"/>
@@ -6463,7 +6463,7 @@
       <c r="L111" s="44"/>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="84">
+      <c r="A112" s="76">
         <v>13</v>
       </c>
       <c r="B112" s="19"/>
@@ -6474,7 +6474,7 @@
       <c r="E112" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F112" s="68" t="s">
+      <c r="F112" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="12"/>
@@ -6485,7 +6485,7 @@
       <c r="L112" s="12"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="84"/>
+      <c r="A113" s="76"/>
       <c r="B113" s="19"/>
       <c r="C113" s="36" t="s">
         <v>145</v>
@@ -6494,7 +6494,7 @@
       <c r="E113" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F113" s="75" t="s">
+      <c r="F113" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="12"/>
@@ -6505,7 +6505,7 @@
       <c r="L113" s="12"/>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="84"/>
+      <c r="A114" s="76"/>
       <c r="B114" s="19"/>
       <c r="C114" s="36" t="s">
         <v>146</v>
@@ -6514,7 +6514,7 @@
       <c r="E114" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F114" s="75"/>
+      <c r="F114" s="77"/>
       <c r="G114" s="12"/>
       <c r="H114" s="31"/>
       <c r="I114" s="12"/>
@@ -6523,7 +6523,7 @@
       <c r="L114" s="12"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="84"/>
+      <c r="A115" s="76"/>
       <c r="B115" s="19"/>
       <c r="C115" s="36" t="s">
         <v>147</v>
@@ -6543,7 +6543,7 @@
       <c r="L115" s="12"/>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="84"/>
+      <c r="A116" s="76"/>
       <c r="B116" s="19"/>
       <c r="C116" s="36" t="s">
         <v>148</v>
@@ -6552,7 +6552,7 @@
       <c r="E116" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F116" s="68" t="s">
+      <c r="F116" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G116" s="12"/>
@@ -6563,7 +6563,7 @@
       <c r="L116" s="12"/>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="84"/>
+      <c r="A117" s="76"/>
       <c r="B117" s="19"/>
       <c r="C117" s="36" t="s">
         <v>149</v>
@@ -6572,7 +6572,7 @@
       <c r="E117" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F117" s="68" t="s">
+      <c r="F117" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G117" s="12" t="s">
@@ -6593,7 +6593,7 @@
       <c r="L117" s="12"/>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="84"/>
+      <c r="A118" s="76"/>
       <c r="B118" s="19"/>
       <c r="C118" s="36" t="s">
         <v>155</v>
@@ -6602,7 +6602,7 @@
       <c r="E118" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F118" s="68"/>
+      <c r="F118" s="69"/>
       <c r="G118" s="12"/>
       <c r="H118" s="31"/>
       <c r="I118" s="12"/>
@@ -6611,7 +6611,7 @@
       <c r="L118" s="12"/>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="84"/>
+      <c r="A119" s="76"/>
       <c r="B119" s="19"/>
       <c r="C119" s="36" t="s">
         <v>156</v>
@@ -6620,7 +6620,7 @@
       <c r="E119" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F119" s="68"/>
+      <c r="F119" s="69"/>
       <c r="G119" s="12"/>
       <c r="H119" s="31"/>
       <c r="I119" s="12"/>
@@ -6643,7 +6643,7 @@
       <c r="L120" s="44"/>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="84">
+      <c r="A121" s="76">
         <v>14</v>
       </c>
       <c r="B121" s="19"/>
@@ -6654,7 +6654,7 @@
       <c r="E121" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F121" s="68" t="s">
+      <c r="F121" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G121" s="12"/>
@@ -6665,7 +6665,7 @@
       <c r="L121" s="12"/>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="84"/>
+      <c r="A122" s="76"/>
       <c r="B122" s="19"/>
       <c r="C122" s="36" t="s">
         <v>158</v>
@@ -6674,7 +6674,7 @@
       <c r="E122" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F122" s="68" t="s">
+      <c r="F122" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="12"/>
@@ -6685,7 +6685,7 @@
       <c r="L122" s="12"/>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="84"/>
+      <c r="A123" s="76"/>
       <c r="B123" s="19"/>
       <c r="C123" s="36" t="s">
         <v>159</v>
@@ -6703,7 +6703,7 @@
       <c r="L123" s="12"/>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="84"/>
+      <c r="A124" s="76"/>
       <c r="B124" s="19"/>
       <c r="C124" s="36" t="s">
         <v>160</v>
@@ -6723,7 +6723,7 @@
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="84"/>
+      <c r="A125" s="76"/>
       <c r="B125" s="19"/>
       <c r="C125" s="36" t="s">
         <v>161</v>
@@ -6732,7 +6732,7 @@
       <c r="E125" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F125" s="68" t="s">
+      <c r="F125" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G125" s="12"/>
@@ -6743,7 +6743,7 @@
       <c r="L125" s="12"/>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="84"/>
+      <c r="A126" s="76"/>
       <c r="B126" s="19"/>
       <c r="C126" s="36" t="s">
         <v>162</v>
@@ -6752,7 +6752,7 @@
       <c r="E126" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F126" s="68"/>
+      <c r="F126" s="69"/>
       <c r="G126" s="12"/>
       <c r="H126" s="31"/>
       <c r="I126" s="12"/>
@@ -6761,7 +6761,7 @@
       <c r="L126" s="12"/>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="84"/>
+      <c r="A127" s="76"/>
       <c r="B127" s="19"/>
       <c r="C127" s="36" t="s">
         <v>163</v>
@@ -6770,7 +6770,7 @@
       <c r="E127" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F127" s="68"/>
+      <c r="F127" s="69"/>
       <c r="G127" s="12"/>
       <c r="H127" s="31"/>
       <c r="I127" s="12"/>
@@ -6779,7 +6779,7 @@
       <c r="L127" s="12"/>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="84"/>
+      <c r="A128" s="76"/>
       <c r="B128" s="19"/>
       <c r="C128" s="36" t="s">
         <v>164</v>
@@ -6788,7 +6788,7 @@
       <c r="E128" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F128" s="68"/>
+      <c r="F128" s="69"/>
       <c r="G128" s="12"/>
       <c r="H128" s="31"/>
       <c r="I128" s="12"/>
@@ -6811,7 +6811,7 @@
       <c r="L129" s="44"/>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="84">
+      <c r="A130" s="76">
         <v>15</v>
       </c>
       <c r="B130" s="19"/>
@@ -6822,7 +6822,7 @@
       <c r="E130" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F130" s="68" t="s">
+      <c r="F130" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G130" s="12"/>
@@ -6833,7 +6833,7 @@
       <c r="L130" s="12"/>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="84"/>
+      <c r="A131" s="76"/>
       <c r="B131" s="19"/>
       <c r="C131" s="36" t="s">
         <v>166</v>
@@ -6842,7 +6842,7 @@
       <c r="E131" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F131" s="75" t="s">
+      <c r="F131" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="12"/>
@@ -6853,7 +6853,7 @@
       <c r="L131" s="12"/>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="84"/>
+      <c r="A132" s="76"/>
       <c r="B132" s="19"/>
       <c r="C132" s="36" t="s">
         <v>167</v>
@@ -6862,7 +6862,7 @@
       <c r="E132" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F132" s="75"/>
+      <c r="F132" s="77"/>
       <c r="G132" s="12"/>
       <c r="H132" s="31"/>
       <c r="I132" s="12"/>
@@ -6871,7 +6871,7 @@
       <c r="L132" s="12"/>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="84"/>
+      <c r="A133" s="76"/>
       <c r="B133" s="19"/>
       <c r="C133" s="36" t="s">
         <v>168</v>
@@ -6891,7 +6891,7 @@
       <c r="L133" s="12"/>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="84"/>
+      <c r="A134" s="76"/>
       <c r="B134" s="19"/>
       <c r="C134" s="36" t="s">
         <v>169</v>
@@ -6900,7 +6900,7 @@
       <c r="E134" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F134" s="68" t="s">
+      <c r="F134" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G134" s="12"/>
@@ -6911,7 +6911,7 @@
       <c r="L134" s="12"/>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="84"/>
+      <c r="A135" s="76"/>
       <c r="B135" s="19"/>
       <c r="C135" s="36" t="s">
         <v>170</v>
@@ -6920,7 +6920,7 @@
       <c r="E135" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F135" s="68" t="s">
+      <c r="F135" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G135" s="12" t="s">
@@ -6941,7 +6941,7 @@
       <c r="L135" s="12"/>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="84"/>
+      <c r="A136" s="76"/>
       <c r="B136" s="19"/>
       <c r="C136" s="36" t="s">
         <v>176</v>
@@ -6950,7 +6950,7 @@
       <c r="E136" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F136" s="68"/>
+      <c r="F136" s="69"/>
       <c r="G136" s="12"/>
       <c r="H136" s="31"/>
       <c r="I136" s="12"/>
@@ -6959,7 +6959,7 @@
       <c r="L136" s="12"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="84"/>
+      <c r="A137" s="76"/>
       <c r="B137" s="19"/>
       <c r="C137" s="36" t="s">
         <v>177</v>
@@ -6968,7 +6968,7 @@
       <c r="E137" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F137" s="68"/>
+      <c r="F137" s="69"/>
       <c r="G137" s="12"/>
       <c r="H137" s="31"/>
       <c r="I137" s="12"/>
@@ -6991,7 +6991,7 @@
       <c r="L138" s="44"/>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="84">
+      <c r="A139" s="76">
         <v>16</v>
       </c>
       <c r="B139" s="19"/>
@@ -7002,7 +7002,7 @@
       <c r="E139" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F139" s="68" t="s">
+      <c r="F139" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G139" s="12" t="s">
@@ -7021,7 +7021,7 @@
       <c r="L139" s="12"/>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="84"/>
+      <c r="A140" s="76"/>
       <c r="B140" s="19"/>
       <c r="C140" s="37" t="s">
         <v>179</v>
@@ -7030,7 +7030,7 @@
       <c r="E140" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F140" s="68" t="s">
+      <c r="F140" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="11" t="s">
@@ -7049,7 +7049,7 @@
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="84"/>
+      <c r="A141" s="76"/>
       <c r="B141" s="19"/>
       <c r="C141" s="36" t="s">
         <v>180</v>
@@ -7065,7 +7065,7 @@
       <c r="L141" s="12"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="84"/>
+      <c r="A142" s="76"/>
       <c r="B142" s="19"/>
       <c r="C142" s="37" t="s">
         <v>181</v>
@@ -7085,7 +7085,7 @@
       <c r="L142" s="12"/>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="84"/>
+      <c r="A143" s="76"/>
       <c r="B143" s="19"/>
       <c r="C143" s="37" t="s">
         <v>182</v>
@@ -7094,7 +7094,7 @@
       <c r="E143" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F143" s="68" t="s">
+      <c r="F143" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G143" s="12"/>
@@ -7105,14 +7105,14 @@
       <c r="L143" s="12"/>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="85"/>
+      <c r="A144" s="79"/>
       <c r="B144" s="19"/>
       <c r="C144" s="36" t="s">
         <v>183</v>
       </c>
       <c r="D144" s="54"/>
       <c r="E144" s="17"/>
-      <c r="F144" s="68"/>
+      <c r="F144" s="69"/>
       <c r="G144" s="12"/>
       <c r="H144" s="31"/>
       <c r="I144" s="12"/>
@@ -7121,14 +7121,14 @@
       <c r="L144" s="12"/>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="85"/>
+      <c r="A145" s="79"/>
       <c r="B145" s="19"/>
       <c r="C145" s="36" t="s">
         <v>184</v>
       </c>
       <c r="D145" s="54"/>
       <c r="E145" s="17"/>
-      <c r="F145" s="68"/>
+      <c r="F145" s="69"/>
       <c r="G145" s="12"/>
       <c r="H145" s="31"/>
       <c r="I145" s="12"/>
@@ -7137,14 +7137,14 @@
       <c r="L145" s="12"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="85"/>
+      <c r="A146" s="79"/>
       <c r="B146" s="19"/>
       <c r="C146" s="36" t="s">
         <v>185</v>
       </c>
       <c r="D146" s="54"/>
       <c r="E146" s="17"/>
-      <c r="F146" s="68"/>
+      <c r="F146" s="69"/>
       <c r="G146" s="12"/>
       <c r="H146" s="31"/>
       <c r="I146" s="12"/>
@@ -7167,7 +7167,7 @@
       <c r="L147" s="44"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="86">
+      <c r="A148" s="80">
         <v>17</v>
       </c>
       <c r="B148" s="32"/>
@@ -7178,7 +7178,7 @@
       <c r="E148" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F148" s="68" t="s">
+      <c r="F148" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G148" s="12" t="s">
@@ -7197,7 +7197,7 @@
       <c r="L148" s="12"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="86"/>
+      <c r="A149" s="80"/>
       <c r="B149" s="32"/>
       <c r="C149" s="37" t="s">
         <v>187</v>
@@ -7206,7 +7206,7 @@
       <c r="E149" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F149" s="75" t="s">
+      <c r="F149" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="11" t="s">
@@ -7221,7 +7221,7 @@
       <c r="L149" s="12"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="86"/>
+      <c r="A150" s="80"/>
       <c r="B150" s="32"/>
       <c r="C150" s="37" t="s">
         <v>188</v>
@@ -7230,7 +7230,7 @@
       <c r="E150" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F150" s="75"/>
+      <c r="F150" s="77"/>
       <c r="G150" s="12"/>
       <c r="H150" s="31"/>
       <c r="I150" s="12" t="s">
@@ -7245,7 +7245,7 @@
       <c r="L150" s="12"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="86"/>
+      <c r="A151" s="80"/>
       <c r="B151" s="32"/>
       <c r="C151" s="37" t="s">
         <v>189</v>
@@ -7265,7 +7265,7 @@
       <c r="L151" s="12"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="86"/>
+      <c r="A152" s="80"/>
       <c r="B152" s="32"/>
       <c r="C152" s="37" t="s">
         <v>190</v>
@@ -7274,7 +7274,7 @@
       <c r="E152" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F152" s="68" t="s">
+      <c r="F152" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G152" s="12"/>
@@ -7285,7 +7285,7 @@
       <c r="L152" s="12"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="86"/>
+      <c r="A153" s="80"/>
       <c r="B153" s="32"/>
       <c r="C153" s="37" t="s">
         <v>191</v>
@@ -7294,7 +7294,7 @@
       <c r="E153" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F153" s="68" t="s">
+      <c r="F153" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G153" s="12" t="s">
@@ -7315,14 +7315,14 @@
       <c r="L153" s="12"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="86"/>
+      <c r="A154" s="80"/>
       <c r="B154" s="32"/>
       <c r="C154" s="36" t="s">
         <v>197</v>
       </c>
       <c r="D154" s="54"/>
       <c r="E154" s="17"/>
-      <c r="F154" s="68"/>
+      <c r="F154" s="69"/>
       <c r="G154" s="12"/>
       <c r="H154" s="31"/>
       <c r="I154" s="12"/>
@@ -7331,14 +7331,14 @@
       <c r="L154" s="12"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="86"/>
+      <c r="A155" s="80"/>
       <c r="B155" s="32"/>
       <c r="C155" s="36" t="s">
         <v>198</v>
       </c>
       <c r="D155" s="54"/>
       <c r="E155" s="17"/>
-      <c r="F155" s="68"/>
+      <c r="F155" s="69"/>
       <c r="G155" s="12"/>
       <c r="H155" s="31"/>
       <c r="I155" s="12"/>
@@ -7361,7 +7361,7 @@
       <c r="L156" s="44"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="87">
+      <c r="A157" s="78">
         <v>18</v>
       </c>
       <c r="B157" s="19"/>
@@ -7372,7 +7372,7 @@
       <c r="E157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F157" s="68" t="s">
+      <c r="F157" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G157" s="11" t="s">
@@ -7391,7 +7391,7 @@
       <c r="L157" s="12"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="84"/>
+      <c r="A158" s="76"/>
       <c r="B158" s="19"/>
       <c r="C158" s="37" t="s">
         <v>200</v>
@@ -7400,7 +7400,7 @@
       <c r="E158" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F158" s="68" t="s">
+      <c r="F158" s="69" t="s">
         <v>15</v>
       </c>
       <c r="G158" s="11" t="s">
@@ -7419,7 +7419,7 @@
       <c r="L158" s="12"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="84"/>
+      <c r="A159" s="76"/>
       <c r="B159" s="28"/>
       <c r="C159" s="36" t="s">
         <v>201</v>
@@ -7435,7 +7435,7 @@
       <c r="L159" s="12"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="84"/>
+      <c r="A160" s="76"/>
       <c r="B160" s="19"/>
       <c r="C160" s="36" t="s">
         <v>202</v>
@@ -7451,14 +7451,14 @@
       <c r="L160" s="12"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="84"/>
+      <c r="A161" s="76"/>
       <c r="B161" s="21"/>
       <c r="C161" s="36" t="s">
         <v>203</v>
       </c>
       <c r="D161" s="54"/>
       <c r="E161" s="17"/>
-      <c r="F161" s="68"/>
+      <c r="F161" s="69"/>
       <c r="G161" s="12"/>
       <c r="H161" s="31"/>
       <c r="I161" s="12"/>
@@ -7467,14 +7467,14 @@
       <c r="L161" s="12"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="84"/>
+      <c r="A162" s="76"/>
       <c r="B162" s="21"/>
       <c r="C162" s="36" t="s">
         <v>204</v>
       </c>
       <c r="D162" s="54"/>
       <c r="E162" s="17"/>
-      <c r="F162" s="68"/>
+      <c r="F162" s="69"/>
       <c r="G162" s="12"/>
       <c r="H162" s="31"/>
       <c r="I162" s="12"/>
@@ -7483,14 +7483,14 @@
       <c r="L162" s="12"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="84"/>
+      <c r="A163" s="76"/>
       <c r="B163" s="21"/>
       <c r="C163" s="36" t="s">
         <v>205</v>
       </c>
       <c r="D163" s="54"/>
       <c r="E163" s="17"/>
-      <c r="F163" s="68"/>
+      <c r="F163" s="69"/>
       <c r="G163" s="12"/>
       <c r="H163" s="31"/>
       <c r="I163" s="12"/>
@@ -7499,14 +7499,14 @@
       <c r="L163" s="12"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="84"/>
+      <c r="A164" s="76"/>
       <c r="B164" s="19"/>
       <c r="C164" s="36" t="s">
         <v>206</v>
       </c>
       <c r="D164" s="54"/>
       <c r="E164" s="17"/>
-      <c r="F164" s="68"/>
+      <c r="F164" s="69"/>
       <c r="G164" s="12"/>
       <c r="H164" s="31"/>
       <c r="I164" s="12"/>
@@ -7529,7 +7529,7 @@
       <c r="L165" s="44"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="84">
+      <c r="A166" s="76">
         <v>19</v>
       </c>
       <c r="B166" s="19"/>
@@ -7540,7 +7540,7 @@
       <c r="E166" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="68" t="s">
+      <c r="F166" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G166" s="11" t="s">
@@ -7559,7 +7559,7 @@
       <c r="L166" s="12"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="84"/>
+      <c r="A167" s="76"/>
       <c r="B167" s="19"/>
       <c r="C167" s="37" t="s">
         <v>208</v>
@@ -7568,7 +7568,7 @@
       <c r="E167" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F167" s="75" t="s">
+      <c r="F167" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G167" s="11" t="s">
@@ -7583,7 +7583,7 @@
       <c r="L167" s="12"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="84"/>
+      <c r="A168" s="76"/>
       <c r="B168" s="19"/>
       <c r="C168" s="37" t="s">
         <v>209</v>
@@ -7592,7 +7592,7 @@
       <c r="E168" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="75"/>
+      <c r="F168" s="77"/>
       <c r="G168" s="12"/>
       <c r="H168" s="31"/>
       <c r="I168" s="12" t="s">
@@ -7607,7 +7607,7 @@
       <c r="L168" s="12"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="84"/>
+      <c r="A169" s="76"/>
       <c r="B169" s="19"/>
       <c r="C169" s="36" t="s">
         <v>210</v>
@@ -7623,14 +7623,14 @@
       <c r="L169" s="12"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="84"/>
+      <c r="A170" s="76"/>
       <c r="B170" s="19"/>
       <c r="C170" s="36" t="s">
         <v>211</v>
       </c>
       <c r="D170" s="54"/>
       <c r="E170" s="17"/>
-      <c r="F170" s="68"/>
+      <c r="F170" s="69"/>
       <c r="G170" s="12"/>
       <c r="H170" s="31"/>
       <c r="I170" s="12"/>
@@ -7639,7 +7639,7 @@
       <c r="L170" s="12"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="84"/>
+      <c r="A171" s="76"/>
       <c r="B171" s="19"/>
       <c r="C171" s="37" t="s">
         <v>212</v>
@@ -7648,7 +7648,7 @@
       <c r="E171" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F171" s="68" t="s">
+      <c r="F171" s="69" t="s">
         <v>22</v>
       </c>
       <c r="G171" s="12" t="s">
@@ -7669,14 +7669,14 @@
       <c r="L171" s="12"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="84"/>
+      <c r="A172" s="76"/>
       <c r="B172" s="19"/>
       <c r="C172" s="36" t="s">
         <v>218</v>
       </c>
       <c r="D172" s="54"/>
       <c r="E172" s="17"/>
-      <c r="F172" s="68"/>
+      <c r="F172" s="69"/>
       <c r="G172" s="12"/>
       <c r="H172" s="31"/>
       <c r="I172" s="12"/>
@@ -7685,14 +7685,14 @@
       <c r="L172" s="12"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="84"/>
+      <c r="A173" s="76"/>
       <c r="B173" s="19"/>
       <c r="C173" s="36" t="s">
         <v>219</v>
       </c>
       <c r="D173" s="54"/>
       <c r="E173" s="17"/>
-      <c r="F173" s="68"/>
+      <c r="F173" s="69"/>
       <c r="G173" s="12"/>
       <c r="H173" s="31"/>
       <c r="I173" s="12"/>
@@ -7715,7 +7715,7 @@
       <c r="L174" s="44"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="84">
+      <c r="A175" s="76">
         <v>20</v>
       </c>
       <c r="B175" s="19"/>
@@ -7728,7 +7728,7 @@
       <c r="E175" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="68" t="s">
+      <c r="F175" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G175" s="12" t="s">
@@ -7749,7 +7749,7 @@
       <c r="L175" s="12"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="84"/>
+      <c r="A176" s="76"/>
       <c r="B176" s="19"/>
       <c r="C176" s="37" t="s">
         <v>223</v>
@@ -7760,7 +7760,7 @@
       <c r="E176" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F176" s="75" t="s">
+      <c r="F176" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G176" s="12" t="s">
@@ -7777,7 +7777,7 @@
       <c r="L176" s="12"/>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="84"/>
+      <c r="A177" s="76"/>
       <c r="B177" s="19"/>
       <c r="C177" s="37" t="s">
         <v>224</v>
@@ -7788,7 +7788,7 @@
       <c r="E177" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F177" s="75"/>
+      <c r="F177" s="77"/>
       <c r="G177" s="12"/>
       <c r="H177" s="31"/>
       <c r="I177" s="12"/>
@@ -7803,7 +7803,7 @@
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="84"/>
+      <c r="A178" s="76"/>
       <c r="B178" s="19"/>
       <c r="C178" s="37" t="s">
         <v>225</v>
@@ -7825,7 +7825,7 @@
       <c r="L178" s="12"/>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="84"/>
+      <c r="A179" s="76"/>
       <c r="B179" s="19"/>
       <c r="C179" s="37" t="s">
         <v>226</v>
@@ -7836,7 +7836,7 @@
       <c r="E179" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F179" s="68" t="s">
+      <c r="F179" s="69" t="s">
         <v>20</v>
       </c>
       <c r="G179" s="12"/>
@@ -7847,14 +7847,14 @@
       <c r="L179" s="12"/>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="84"/>
+      <c r="A180" s="76"/>
       <c r="B180" s="19"/>
       <c r="C180" s="36" t="s">
         <v>227</v>
       </c>
       <c r="D180" s="53"/>
       <c r="E180" s="17"/>
-      <c r="F180" s="68"/>
+      <c r="F180" s="69"/>
       <c r="G180" s="12"/>
       <c r="H180" s="31"/>
       <c r="I180" s="12"/>
@@ -7863,14 +7863,14 @@
       <c r="L180" s="12"/>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="84"/>
+      <c r="A181" s="76"/>
       <c r="B181" s="19"/>
       <c r="C181" s="36" t="s">
         <v>228</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="17"/>
-      <c r="F181" s="68"/>
+      <c r="F181" s="69"/>
       <c r="G181" s="12"/>
       <c r="H181" s="31"/>
       <c r="I181" s="12"/>
@@ -7879,14 +7879,14 @@
       <c r="L181" s="12"/>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="84"/>
+      <c r="A182" s="76"/>
       <c r="B182" s="19"/>
       <c r="C182" s="36" t="s">
         <v>229</v>
       </c>
       <c r="D182" s="36"/>
       <c r="E182" s="64"/>
-      <c r="F182" s="70"/>
+      <c r="F182" s="71"/>
       <c r="G182" s="12"/>
       <c r="H182" s="31"/>
       <c r="I182" s="12"/>
@@ -7896,23 +7896,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A175:A182"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="A157:A164"/>
-    <mergeCell ref="A166:A173"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="A148:A155"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A121:A128"/>
-    <mergeCell ref="A130:A137"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="A103:A110"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="F41:F42"/>
@@ -7922,14 +7913,23 @@
     <mergeCell ref="A76:A83"/>
     <mergeCell ref="F59:F60"/>
     <mergeCell ref="A58:A65"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A103:A110"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A148:A155"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="A121:A128"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="A175:A182"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="A157:A164"/>
+    <mergeCell ref="A166:A173"/>
+    <mergeCell ref="F167:F168"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7949,14 +7949,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="89"/>
+      <c r="D1" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="88"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -8210,13 +8210,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="74" t="s">
         <v>287</v>
       </c>
       <c r="D1" s="61" t="s">
@@ -8224,13 +8224,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="74">
         <v>101</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>290</v>
       </c>
       <c r="D2" s="61" t="s">
@@ -8238,11 +8238,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="89"/>
-      <c r="B3" s="72">
+      <c r="A3" s="90"/>
+      <c r="B3" s="74">
         <v>150</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="74" t="s">
         <v>292</v>
       </c>
       <c r="D3" s="61" t="s">
@@ -8250,11 +8250,11 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="89"/>
-      <c r="B4" s="72">
+      <c r="A4" s="90"/>
+      <c r="B4" s="74">
         <v>151</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="74" t="s">
         <v>292</v>
       </c>
       <c r="D4" s="61" t="s">
@@ -8262,11 +8262,11 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="72">
+      <c r="A5" s="90"/>
+      <c r="B5" s="74">
         <v>152</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="74" t="s">
         <v>292</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -8274,11 +8274,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="89"/>
-      <c r="B6" s="72">
+      <c r="A6" s="90"/>
+      <c r="B6" s="74">
         <v>500</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="74" t="s">
         <v>290</v>
       </c>
       <c r="D6" s="61" t="s">
@@ -8286,11 +8286,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="89"/>
-      <c r="B7" s="72">
+      <c r="A7" s="90"/>
+      <c r="B7" s="74">
         <v>501</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="74" t="s">
         <v>290</v>
       </c>
       <c r="D7" s="61" t="s">
@@ -8298,11 +8298,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="89"/>
-      <c r="B8" s="72">
+      <c r="A8" s="90"/>
+      <c r="B8" s="74">
         <v>502</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>290</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -8310,37 +8310,37 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="74">
         <v>1</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="74" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="89"/>
-      <c r="B10" s="72">
+      <c r="A10" s="90"/>
+      <c r="B10" s="74">
         <v>2</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="74" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="89"/>
-      <c r="B11" s="72">
+      <c r="A11" s="90"/>
+      <c r="B11" s="74">
         <v>101</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="74" t="s">
         <v>296</v>
       </c>
       <c r="D11" s="61" t="s">
@@ -8348,8 +8348,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="89"/>
-      <c r="B12" s="72">
+      <c r="A12" s="90"/>
+      <c r="B12" s="74">
         <v>500</v>
       </c>
       <c r="C12" s="61" t="s">
@@ -8360,8 +8360,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="89"/>
-      <c r="B13" s="72">
+      <c r="A13" s="90"/>
+      <c r="B13" s="74">
         <v>501</v>
       </c>
       <c r="C13" s="61" t="s">
@@ -8372,8 +8372,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="89"/>
-      <c r="B14" s="72">
+      <c r="A14" s="90"/>
+      <c r="B14" s="74">
         <v>502</v>
       </c>
       <c r="C14" s="61" t="s">
@@ -8384,87 +8384,87 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="89"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="61"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="89"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="61"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="89"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="89"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="89"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="61"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="89"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="61"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="90" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="89"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="61"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="89"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="61"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="89"/>
-      <c r="B25" s="72"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="61"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="89"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="61"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="89"/>
-      <c r="B27" s="72"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="61"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="89"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="61"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="74">
         <v>1</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="74" t="s">
         <v>303</v>
       </c>
       <c r="D29" s="61" t="s">
@@ -8472,11 +8472,11 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="89"/>
-      <c r="B30" s="72">
+      <c r="A30" s="90"/>
+      <c r="B30" s="74">
         <v>2</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="74" t="s">
         <v>296</v>
       </c>
       <c r="D30" s="61" t="s">
@@ -8484,11 +8484,11 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="89"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="62">
         <v>119</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="74" t="s">
         <v>290</v>
       </c>
       <c r="D31" s="61" t="s">
@@ -8496,11 +8496,11 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="89"/>
-      <c r="B32" s="72">
+      <c r="A32" s="90"/>
+      <c r="B32" s="74">
         <v>120</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="74" t="s">
         <v>290</v>
       </c>
       <c r="D32" s="61" t="s">
@@ -8508,11 +8508,11 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="89"/>
-      <c r="B33" s="72">
+      <c r="A33" s="90"/>
+      <c r="B33" s="74">
         <v>150</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="74" t="s">
         <v>292</v>
       </c>
       <c r="D33" s="61" t="s">
@@ -8520,11 +8520,11 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="89"/>
-      <c r="B34" s="72">
+      <c r="A34" s="90"/>
+      <c r="B34" s="74">
         <v>151</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="74" t="s">
         <v>292</v>
       </c>
       <c r="D34" s="61" t="s">
@@ -8532,11 +8532,11 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="89"/>
-      <c r="B35" s="72">
+      <c r="A35" s="90"/>
+      <c r="B35" s="74">
         <v>152</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="74" t="s">
         <v>292</v>
       </c>
       <c r="D35" s="61" t="s">
@@ -8544,11 +8544,11 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="89"/>
-      <c r="B36" s="72">
+      <c r="A36" s="90"/>
+      <c r="B36" s="74">
         <v>500</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="74" t="s">
         <v>304</v>
       </c>
       <c r="D36" s="61" t="s">
@@ -8556,11 +8556,11 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="89"/>
-      <c r="B37" s="72">
+      <c r="A37" s="90"/>
+      <c r="B37" s="74">
         <v>501</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="74" t="s">
         <v>304</v>
       </c>
       <c r="D37" s="61" t="s">
@@ -8568,11 +8568,11 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="89"/>
-      <c r="B38" s="72">
+      <c r="A38" s="90"/>
+      <c r="B38" s="74">
         <v>502</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="74" t="s">
         <v>304</v>
       </c>
       <c r="D38" s="61" t="s">
@@ -8580,13 +8580,13 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="90" t="s">
         <v>305</v>
       </c>
-      <c r="B39" s="72">
+      <c r="B39" s="74">
         <v>1</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="74" t="s">
         <v>291</v>
       </c>
       <c r="D39" s="61" t="s">
@@ -8594,11 +8594,11 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="89"/>
-      <c r="B40" s="72">
+      <c r="A40" s="90"/>
+      <c r="B40" s="74">
         <v>2</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="74" t="s">
         <v>291</v>
       </c>
       <c r="D40" s="61" t="s">
@@ -8606,11 +8606,11 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="89"/>
-      <c r="B41" s="72">
+      <c r="A41" s="90"/>
+      <c r="B41" s="74">
         <v>120</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="74" t="s">
         <v>306</v>
       </c>
       <c r="D41" s="61" t="s">
@@ -8618,38 +8618,38 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="89"/>
-      <c r="B42" s="72">
+      <c r="A42" s="90"/>
+      <c r="B42" s="74">
         <v>500</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="74" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="89"/>
-      <c r="B43" s="72">
+      <c r="A43" s="90"/>
+      <c r="B43" s="74">
         <v>501</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="74" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="89"/>
-      <c r="B44" s="72">
+      <c r="A44" s="90"/>
+      <c r="B44" s="74">
         <v>502</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="74" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="74" t="str">
+      <c r="A2" s="68" t="str">
         <f>_xlfn.CONCAT("10.128.",B2 + 100,".106")</f>
         <v>10.128.101.106</v>
       </c>
@@ -8769,7 +8769,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="74" t="str">
+      <c r="A3" s="68" t="str">
         <f t="shared" ref="A3:A12" si="1">_xlfn.CONCAT("10.128.",B3 + 100,".106")</f>
         <v>10.128.101.106</v>
       </c>
@@ -8817,7 +8817,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="74" t="str">
+      <c r="A4" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.101.106</v>
       </c>
@@ -8865,7 +8865,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="74" t="str">
+      <c r="A5" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.101.106</v>
       </c>
@@ -8913,7 +8913,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="74" t="str">
+      <c r="A6" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.101.106</v>
       </c>
@@ -8961,7 +8961,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.102.106</v>
       </c>
@@ -9009,7 +9009,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="74" t="str">
+      <c r="A8" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.103.106</v>
       </c>
@@ -9057,7 +9057,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="74" t="str">
+      <c r="A9" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.104.106</v>
       </c>
@@ -9105,7 +9105,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="74" t="str">
+      <c r="A10" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.105.106</v>
       </c>
@@ -9153,7 +9153,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="74" t="str">
+      <c r="A11" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.106.106</v>
       </c>
@@ -9201,7 +9201,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="74" t="str">
+      <c r="A12" s="68" t="str">
         <f t="shared" si="1"/>
         <v>10.128.107.106</v>
       </c>
@@ -9257,8 +9257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAC2745-51F2-425B-82EA-1D82E3E9074F}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{171B8CAD-EC4D-5839-94E3-BF8F162C5DC3}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0" xr3:uid="{171B8CAD-EC4D-5839-94E3-BF8F162C5DC3}">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9270,7 +9270,7 @@
     <col min="8" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="23" customWidth="1"/>
     <col min="13" max="23" width="9.140625" style="67"/>
-    <col min="24" max="24" width="7.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -9307,7 +9307,7 @@
       <c r="K1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="L1" s="75" t="s">
         <v>324</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -9348,7 +9348,7 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="74" t="str">
+      <c r="A2" s="68" t="str">
         <f>_xlfn.CONCAT("10.128.",D2 + 100,".101")</f>
         <v>10.128.101.101</v>
       </c>
@@ -9425,7 +9425,7 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="74" t="str">
+      <c r="A3" s="68" t="str">
         <f t="shared" ref="A3:A20" si="0">_xlfn.CONCAT("10.128.",D3 + 100,".101")</f>
         <v>10.128.102.101</v>
       </c>
@@ -9502,7 +9502,7 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="74" t="str">
+      <c r="A4" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.104.101</v>
       </c>
@@ -9579,7 +9579,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="74" t="str">
+      <c r="A5" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.105.101</v>
       </c>
@@ -9660,7 +9660,7 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="74" t="str">
+      <c r="A6" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.106.101</v>
       </c>
@@ -9737,7 +9737,7 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.107.101</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="74" t="str">
+      <c r="A8" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.108.101</v>
       </c>
@@ -9895,7 +9895,7 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="74" t="str">
+      <c r="A9" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.109.101</v>
       </c>
@@ -9976,7 +9976,7 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="74" t="str">
+      <c r="A10" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.110.101</v>
       </c>
@@ -10053,7 +10053,7 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="74" t="str">
+      <c r="A11" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.111.101</v>
       </c>
@@ -10134,7 +10134,7 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="74" t="str">
+      <c r="A12" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.112.101</v>
       </c>
@@ -10211,7 +10211,7 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="74" t="str">
+      <c r="A13" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.114.101</v>
       </c>
@@ -10288,7 +10288,7 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="74" t="str">
+      <c r="A14" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.115.101</v>
       </c>
@@ -10369,7 +10369,7 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="74" t="str">
+      <c r="A15" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.116.101</v>
       </c>
@@ -10446,7 +10446,7 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="74" t="str">
+      <c r="A16" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.117.101</v>
       </c>
@@ -10527,7 +10527,7 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="74" t="str">
+      <c r="A17" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.118.101</v>
       </c>
@@ -10604,7 +10604,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="74" t="str">
+      <c r="A18" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.119.101</v>
       </c>
@@ -10681,7 +10681,7 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="74" t="str">
+      <c r="A19" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.120.101</v>
       </c>
@@ -10759,7 +10759,7 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="74" t="str">
+      <c r="A20" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.120.101</v>
       </c>
@@ -10854,12 +10854,12 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{B7ED869F-277A-5DF5-9C03-31BE7BB221E2}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="68" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -10898,17 +10898,17 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="74" t="str">
+      <c r="A2" s="68" t="str">
         <f>_xlfn.CONCAT("10.128.",D2 + 100,".102")</f>
         <v>10.128.101.102</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="73">
         <v>1</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="73">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -10928,17 +10928,17 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="74" t="str">
+      <c r="A3" s="68" t="str">
         <f t="shared" ref="A3:A44" si="0">_xlfn.CONCAT("10.128.",D3 + 100,".102")</f>
         <v>10.128.101.102</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="73">
         <v>2</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="73">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -10958,17 +10958,17 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="74" t="str">
+      <c r="A4" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.102.102</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="73">
         <v>1</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="73">
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -10988,17 +10988,17 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="74" t="str">
+      <c r="A5" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.102.102</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="73">
         <v>2</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="73">
         <v>2</v>
       </c>
       <c r="E5" t="s">
@@ -11019,17 +11019,17 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="74" t="str">
+      <c r="A6" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.102.102</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="73">
         <v>3</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="73">
         <v>2</v>
       </c>
       <c r="E6" t="s">
@@ -11051,17 +11051,17 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.103.102</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="73">
         <v>1</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="73">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -11081,17 +11081,17 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="74" t="str">
+      <c r="A8" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.103.102</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="73">
         <v>2</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="73">
         <v>3</v>
       </c>
       <c r="E8" t="s">
@@ -11112,17 +11112,17 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="74" t="str">
+      <c r="A9" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.104.102</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="73">
         <v>1</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="73">
         <v>4</v>
       </c>
       <c r="E9" t="s">
@@ -11142,17 +11142,17 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="74" t="str">
+      <c r="A10" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.104.102</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="73">
         <v>2</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="73">
         <v>4</v>
       </c>
       <c r="E10" t="s">
@@ -11172,17 +11172,17 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="74" t="str">
+      <c r="A11" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.105.102</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="73">
         <v>1</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="73">
         <v>5</v>
       </c>
       <c r="E11" t="s">
@@ -11202,17 +11202,17 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="74" t="str">
+      <c r="A12" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.105.102</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="73">
         <v>2</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="73">
         <v>5</v>
       </c>
       <c r="E12" t="s">
@@ -11232,17 +11232,17 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="74" t="str">
+      <c r="A13" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.106.102</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="73">
         <v>1</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="73">
         <v>6</v>
       </c>
       <c r="E13" t="s">
@@ -11262,17 +11262,17 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="74" t="str">
+      <c r="A14" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.106.102</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="73">
         <v>2</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="73">
         <v>6</v>
       </c>
       <c r="E14" t="s">
@@ -11293,17 +11293,17 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="74" t="str">
+      <c r="A15" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.107.102</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="73">
         <v>1</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="73">
         <v>7</v>
       </c>
       <c r="E15" t="s">
@@ -11323,17 +11323,17 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="74" t="str">
+      <c r="A16" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.107.102</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="73">
         <v>2</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="73">
         <v>7</v>
       </c>
       <c r="E16" t="s">
@@ -11354,17 +11354,17 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="74" t="str">
+      <c r="A17" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.108.102</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="73">
         <v>1</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="73">
         <v>8</v>
       </c>
       <c r="E17" t="s">
@@ -11384,17 +11384,17 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="74" t="str">
+      <c r="A18" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.108.102</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="73">
         <v>2</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="73">
         <v>8</v>
       </c>
       <c r="E18" t="s">
@@ -11414,17 +11414,17 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="74" t="str">
+      <c r="A19" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.109.102</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="73">
         <v>1</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="73">
         <v>9</v>
       </c>
       <c r="E19" t="s">
@@ -11444,17 +11444,17 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="74" t="str">
+      <c r="A20" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.109.102</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="73">
         <v>2</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="73">
         <v>9</v>
       </c>
       <c r="E20" t="s">
@@ -11474,17 +11474,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="74" t="str">
+      <c r="A21" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.110.102</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="73">
         <v>1</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="73">
         <v>10</v>
       </c>
       <c r="E21" t="s">
@@ -11504,17 +11504,17 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="74" t="str">
+      <c r="A22" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.110.102</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="73">
         <v>2</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="73">
         <v>10</v>
       </c>
       <c r="E22" t="s">
@@ -11535,17 +11535,17 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="74" t="str">
+      <c r="A23" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.111.102</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="73">
         <v>1</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="73">
         <v>11</v>
       </c>
       <c r="E23" t="s">
@@ -11565,17 +11565,17 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="74" t="str">
+      <c r="A24" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.111.102</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="73">
         <v>2</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="73">
         <v>11</v>
       </c>
       <c r="E24" t="s">
@@ -11596,17 +11596,17 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="74" t="str">
+      <c r="A25" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.112.102</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="73">
         <v>1</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="73">
         <v>12</v>
       </c>
       <c r="E25" t="s">
@@ -11626,17 +11626,17 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="74" t="str">
+      <c r="A26" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.112.102</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="73">
         <v>2</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="73">
         <v>12</v>
       </c>
       <c r="E26" t="s">
@@ -11656,17 +11656,17 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="74" t="str">
+      <c r="A27" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.113.102</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="73">
         <v>1</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="73">
         <v>13</v>
       </c>
       <c r="E27" t="s">
@@ -11686,17 +11686,17 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="74" t="str">
+      <c r="A28" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.113.102</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="73">
         <v>2</v>
       </c>
-      <c r="D28" s="71">
+      <c r="D28" s="73">
         <v>13</v>
       </c>
       <c r="E28" t="s">
@@ -11716,17 +11716,17 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="74" t="str">
+      <c r="A29" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.114.102</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="71">
+      <c r="C29" s="73">
         <v>1</v>
       </c>
-      <c r="D29" s="71">
+      <c r="D29" s="73">
         <v>14</v>
       </c>
       <c r="E29" t="s">
@@ -11746,17 +11746,17 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="74" t="str">
+      <c r="A30" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.114.102</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="71">
+      <c r="C30" s="73">
         <v>2</v>
       </c>
-      <c r="D30" s="71">
+      <c r="D30" s="73">
         <v>14</v>
       </c>
       <c r="E30" t="s">
@@ -11777,17 +11777,17 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="74" t="str">
+      <c r="A31" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.115.102</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="71">
+      <c r="C31" s="73">
         <v>1</v>
       </c>
-      <c r="D31" s="71">
+      <c r="D31" s="73">
         <v>15</v>
       </c>
       <c r="E31" t="s">
@@ -11807,17 +11807,17 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="74" t="str">
+      <c r="A32" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.115.102</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="71">
+      <c r="C32" s="73">
         <v>2</v>
       </c>
-      <c r="D32" s="71">
+      <c r="D32" s="73">
         <v>15</v>
       </c>
       <c r="E32" t="s">
@@ -11838,17 +11838,17 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="74" t="str">
+      <c r="A33" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.116.102</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="71">
+      <c r="C33" s="73">
         <v>1</v>
       </c>
-      <c r="D33" s="71">
+      <c r="D33" s="73">
         <v>16</v>
       </c>
       <c r="E33" t="s">
@@ -11868,17 +11868,17 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="74" t="str">
+      <c r="A34" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.116.102</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="71">
+      <c r="C34" s="73">
         <v>2</v>
       </c>
-      <c r="D34" s="71">
+      <c r="D34" s="73">
         <v>16</v>
       </c>
       <c r="E34" t="s">
@@ -11898,17 +11898,17 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="74" t="str">
+      <c r="A35" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.117.102</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="71">
+      <c r="C35" s="73">
         <v>1</v>
       </c>
-      <c r="D35" s="71">
+      <c r="D35" s="73">
         <v>17</v>
       </c>
       <c r="E35" t="s">
@@ -11928,17 +11928,17 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="74" t="str">
+      <c r="A36" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.117.102</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="71">
+      <c r="C36" s="73">
         <v>2</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="73">
         <v>17</v>
       </c>
       <c r="E36" t="s">
@@ -11958,17 +11958,17 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="74" t="str">
+      <c r="A37" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.118.102</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="71">
+      <c r="C37" s="73">
         <v>1</v>
       </c>
-      <c r="D37" s="71">
+      <c r="D37" s="73">
         <v>18</v>
       </c>
       <c r="E37" t="s">
@@ -11988,17 +11988,17 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="74" t="str">
+      <c r="A38" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.118.102</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="71">
+      <c r="C38" s="73">
         <v>2</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D38" s="73">
         <v>18</v>
       </c>
       <c r="E38" t="s">
@@ -12019,17 +12019,17 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="74" t="str">
+      <c r="A39" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.119.102</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="71">
+      <c r="C39" s="73">
         <v>1</v>
       </c>
-      <c r="D39" s="71">
+      <c r="D39" s="73">
         <v>19</v>
       </c>
       <c r="E39" t="s">
@@ -12049,17 +12049,17 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="74" t="str">
+      <c r="A40" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.119.102</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="73">
         <v>2</v>
       </c>
-      <c r="D40" s="71">
+      <c r="D40" s="73">
         <v>19</v>
       </c>
       <c r="E40" t="s">
@@ -12080,17 +12080,17 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="74" t="str">
+      <c r="A41" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.120.102</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="74">
         <v>1</v>
       </c>
-      <c r="D41" s="72">
+      <c r="D41" s="74">
         <v>20</v>
       </c>
       <c r="E41" t="s">
@@ -12110,17 +12110,17 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="74" t="str">
+      <c r="A42" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.120.102</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="74">
         <v>2</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="74">
         <v>20</v>
       </c>
       <c r="E42" t="s">
@@ -12140,17 +12140,17 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="74" t="str">
+      <c r="A43" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.120.102</v>
       </c>
       <c r="B43" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="74">
         <v>3</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="74">
         <v>20</v>
       </c>
       <c r="E43" t="s">
@@ -12170,17 +12170,17 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="74" t="str">
+      <c r="A44" s="68" t="str">
         <f t="shared" si="0"/>
         <v>10.128.120.102</v>
       </c>
       <c r="B44" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="74">
         <v>4</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="74">
         <v>20</v>
       </c>
       <c r="E44" t="s">
@@ -12386,10 +12386,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>610</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="56" t="s">
         <v>611</v>
       </c>
@@ -12558,7 +12558,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="72"/>
+      <c r="A11" s="74"/>
       <c r="H11" s="58" t="str">
         <f>_xlfn.CONCAT(D$2, $B2)</f>
         <v>TB-02:VA-SIP20-ED:Current-Mon</v>
@@ -12568,7 +12568,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="72"/>
+      <c r="A12" s="74"/>
       <c r="H12" s="58" t="str">
         <f>_xlfn.CONCAT(D$2, $B3)</f>
         <v>TB-02:VA-SIP20-ED:Pressure-Mon</v>
@@ -12578,7 +12578,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="72"/>
+      <c r="A13" s="74"/>
       <c r="H13" s="58" t="str">
         <f>_xlfn.CONCAT(D$2, $B4)</f>
         <v>TB-02:VA-SIP20-ED:Voltage-Mon</v>
@@ -12588,7 +12588,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="72"/>
+      <c r="A14" s="74"/>
       <c r="F14" s="58"/>
       <c r="H14" s="58" t="str">
         <f>_xlfn.CONCAT(D$2, $B5)</f>
@@ -12843,10 +12843,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
@@ -13264,6 +13264,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2d1c0536-4bd1-4da3-8d9b-e331e956cbc8">
+      <UserInfo>
+        <DisplayName>Claudio Ferreira Carneiro</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007A7E416D919B234B9674A954BD75FE26" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2ccb065d180acce57ce91b55ec20438e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d1c0536-4bd1-4da3-8d9b-e331e956cbc8" xmlns:ns3="dfe0e87d-c18b-4fe8-a38f-f5371de371f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb0830106ed5fef0dbe7c6d3599a4a97" ns2:_="" ns3:_="">
     <xsd:import namespace="2d1c0536-4bd1-4da3-8d9b-e331e956cbc8"/>
@@ -13428,31 +13451,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2d1c0536-4bd1-4da3-8d9b-e331e956cbc8">
-      <UserInfo>
-        <DisplayName>Claudio Ferreira Carneiro</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AA7BEF-927B-478B-8FAB-77BE7C43F55F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72DF471-6265-425E-B515-4AF1B1FC5754}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13460,5 +13460,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72DF471-6265-425E-B515-4AF1B1FC5754}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AA7BEF-927B-478B-8FAB-77BE7C43F55F}"/>
 </file>